--- a/result.xlsx
+++ b/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5232" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5232" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DCHCHE" sheetId="1" r:id="rId1"/>
@@ -4646,9 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4787,9 +4785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
